--- a/nuno-dataset/test-oxigen-01/content/results/metrics_9_3.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_9_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,156 +478,156 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_0</t>
+          <t>model_9_3_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7766027250815575</v>
+        <v>0.856543245265085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9106854587156523</v>
+        <v>0.7931399562055996</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9735100490013148</v>
+        <v>0.4679092784645021</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9494574273084506</v>
+        <v>0.7694188702167429</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2472349405288696</v>
+        <v>0.1587643623352051</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03363408893346786</v>
+        <v>0.247082844376564</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01524827815592289</v>
+        <v>0.06362475454807281</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02498198673129082</v>
+        <v>0.1607496738433838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_1</t>
+          <t>model_9_3_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8144634845886547</v>
+        <v>0.8645859507619433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8768427284594621</v>
+        <v>0.8152745782284465</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8598306000173157</v>
+        <v>0.5022203888193926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8735060837962209</v>
+        <v>0.792265993782255</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2053342759609222</v>
+        <v>0.1498634517192841</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04637859389185905</v>
+        <v>0.2206442803144455</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08068501204252243</v>
+        <v>0.05952200293540955</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06252292543649673</v>
+        <v>0.1448217928409576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_2</t>
+          <t>model_9_3_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8351511749884795</v>
+        <v>0.8688494139471367</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8565277666894782</v>
+        <v>0.8083071246630883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8968687997851845</v>
+        <v>0.4526463557454192</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8856107039317874</v>
+        <v>0.7819445797948925</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1824390739202499</v>
+        <v>0.145145058631897</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05402880162000656</v>
+        <v>0.2289665043354034</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05936489999294281</v>
+        <v>0.06544981896877289</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05653989687561989</v>
+        <v>0.1520173847675323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_3</t>
+          <t>model_9_3_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8549316428378688</v>
+        <v>0.870913468803624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8887599171765007</v>
+        <v>0.8022849722739309</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7266841389007085</v>
+        <v>0.4050348310149915</v>
       </c>
       <c r="E5" t="n">
-        <v>0.805343828033271</v>
+        <v>0.7726389830584985</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1605479270219803</v>
+        <v>0.1428607553243637</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04189081490039825</v>
+        <v>0.23615962266922</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1573274433612823</v>
+        <v>0.07114296406507492</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09621389955282211</v>
+        <v>0.1585047841072083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_3_4</t>
+          <t>model_9_3_24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8666223630696277</v>
+        <v>0.8721197839564221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8699015196769561</v>
+        <v>0.7961580320414188</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5491794307881204</v>
+        <v>-0.2919022198506154</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7004577823983933</v>
+        <v>0.7108283198570282</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1476097404956818</v>
+        <v>0.1415257304906845</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04899251461029053</v>
+        <v>0.243477925658226</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2595036029815674</v>
+        <v>0.1544792354106903</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1480565667152405</v>
+        <v>0.2015960961580276</v>
       </c>
     </row>
     <row r="7">
@@ -637,28 +637,617 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8710649116158421</v>
+        <v>0.872303126192486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8790481158343045</v>
+        <v>0.8087637614423305</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5780830459096988</v>
+        <v>0.3842405002480557</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7199874411260381</v>
+        <v>0.7768374981266263</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1426931470632553</v>
+        <v>0.1413228213787079</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04554809257388115</v>
+        <v>0.228421077132225</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2428659498691559</v>
+        <v>0.07362945377826691</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1384035348892212</v>
+        <v>0.1555777788162231</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_22</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8767249567660268</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8101722869200083</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.06923630920201407</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7415125327103338</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1364291459321976</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2267386615276337</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1278539448976517</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1802045851945877</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_0</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8776291851133962</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9667159880300156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5738373179989519</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9354117005518472</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1354284435510635</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03975590690970421</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.05095840618014336</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.04502774775028229</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_15</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8784215658502761</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.82149337082496</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0536295684841025</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7616985606607293</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1345514953136444</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2132162749767303</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1131622567772865</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1661318838596344</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_16</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8784313623323283</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8213976537162355</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.04294910743233904</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7607492876331439</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1345406621694565</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2133306115865707</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1144393682479858</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1667936891317368</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_6</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8792239140667925</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8311845937062068</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3980215789996425</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7982864924285057</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.133663535118103</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2016406357288361</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07198157906532288</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.140624612569809</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_17</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8810949404019278</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8311293879425352</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.06974256075350727</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7717393455721238</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.131592869758606</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.20170658826828</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1112355440855026</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1591319590806961</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8814396820238339</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.833585797275195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2009930221462218</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7845612767187902</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1312113255262375</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1987725347280502</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.09554126858711243</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1501931548118591</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8821569901620367</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8369534694106002</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3147281256373406</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7967961652111695</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1304174959659576</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.194750040769577</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0819413959980011</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1416636109352112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_12</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8826455446745926</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8407971472694437</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2361497502498301</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7939399003929157</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1298768073320389</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1901589781045914</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0913374125957489</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.143654853105545</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_7</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8828204294713419</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8463424976490088</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4029843361724567</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8124362449950279</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.129683256149292</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1835353672504425</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07138815522193909</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1307601034641266</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_9</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.882917605361725</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8411374584704912</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3378544156801502</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8024577756679568</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.129575714468956</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1897524893283844</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.07917606830596924</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.137716606259346</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_11</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8829337229526837</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8433667172425385</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2529316377484006</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7976253468038712</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.129557877779007</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1870897710323334</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.08933071047067642</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1410855352878571</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_21</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8829807609163326</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8398899389785337</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.04020933842941188</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7773017188707229</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1295058131217957</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.191242590546608</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1147669851779938</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1552541553974152</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_14</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8829996165374938</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8405917818453981</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.192957370996454</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7902675180998444</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1294849514961243</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1904042661190033</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.09650213271379471</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1462150514125824</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_18</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8831732818084056</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8479358779222409</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01229232270118963</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7823465864425037</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.129292756319046</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1816321611404419</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1181051582098007</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1517371088266373</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_8</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8833932613113759</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8465090965167147</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.346979977837884</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8080668779024685</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1290493011474609</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1833363622426987</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.07808487862348557</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1338062137365341</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_19</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8835031895527213</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.852679140543495</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.02186338571554436</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7838921923558234</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1289276331663132</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1759665906429291</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1221893280744553</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1506596058607101</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8838874751810436</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8501227341249489</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.05994550178230873</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7784992082926477</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1285023391246796</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1790200769901276</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1267430037260056</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1544193178415298</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_9_3_20</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8853901070751359</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8578659432510887</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.04077578022706441</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7936527599802171</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1268393844366074</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1697712540626526</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1146992444992065</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1438550055027008</v>
       </c>
     </row>
   </sheetData>
